--- a/Översikt TRANÅS.xlsx
+++ b/Översikt TRANÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43321</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>44987</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45162</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43705</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>45027</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>43409</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>44888</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>44900</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>44965</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>45106</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>43348</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43480</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>43487</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>43587</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>43612</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>43633</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43697</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43754</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43790</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43809</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43866</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>44153</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>44239</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>44262</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44735</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>44753</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>44998</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>43325</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43336</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>43368</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43381</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>43382</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>43390</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>43398</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43409</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43426</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43426</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43427</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43430</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43438</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>43439</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43440</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43446</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43448</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43479</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43479</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43480</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43480</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43480</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43480</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43480</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43481</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43511</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43518</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43520</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43529</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>43532</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>43538</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         <v>43556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>43563</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>43564</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43565</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43565</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43580</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43580</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43580</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43580</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43580</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43580</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>43580</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43598</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>43600</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43619</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43620</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43620</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43633</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43634</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>43668</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
         <v>43676</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
         <v>43678</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>43679</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>43682</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>43682</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43684</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>43690</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>43693</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43696</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>43697</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>43700</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>43700</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>43704</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43706</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43707</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43707</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43716</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7693,7 +7693,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43747</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43753</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>43753</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>43753</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>43763</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43766</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43769</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43769</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43769</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>43769</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43769</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43769</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43795</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43796</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43796</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43801</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43801</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43801</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43801</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43801</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43804</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>43811</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>43816</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>43817</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>43832</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>43833</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>43846</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>43853</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>43853</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43853</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43853</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43865</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43865</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43865</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9926,7 +9926,7 @@
         <v>43865</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>43865</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10040,7 +10040,7 @@
         <v>43865</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>43866</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>43866</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>43866</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>43873</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>43878</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>43878</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>43887</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>43892</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>43901</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>43902</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>43902</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>43902</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>43924</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>43949</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>43984</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>43993</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>43994</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>43994</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>43994</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43994</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>43994</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>43994</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44004</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>44012</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>44049</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>44049</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44049</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>44049</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44049</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>44049</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>44049</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44049</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11991,7 +11991,7 @@
         <v>44049</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>44049</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>44049</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>44049</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>44053</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>44053</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>44056</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>44062</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>44068</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>44070</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12581,7 +12581,7 @@
         <v>44074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12638,7 +12638,7 @@
         <v>44088</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>44098</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12752,7 +12752,7 @@
         <v>44102</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12809,7 +12809,7 @@
         <v>44105</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         <v>44105</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12923,7 +12923,7 @@
         <v>44105</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>44116</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>44132</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>44144</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>44144</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>44152</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44161</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>44187</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44214</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44215</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44237</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44239</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44239</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44249</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44250</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44250</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44278</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44287</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44298</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44301</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44341</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44350</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44355</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44356</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44356</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44371</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>44371</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44375</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44377</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44377</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>44386</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44386</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44417</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>44418</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>44420</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>44424</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44460</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44460</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44466</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>44477</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44483</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44489</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44524</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44533</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>44550</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>44552</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>44557</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44565</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44573</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44578</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44580</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44587</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44596</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44599</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44603</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44603</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44609</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44613</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44614</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44621</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44627</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44628</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>44628</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>44630</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>44637</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44691</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44691</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44701</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44714</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44719</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44719</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44719</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44735</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44738</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44743</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44743</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44743</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44771</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44797</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44823</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44834</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44845</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44846</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44853</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44855</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44881</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44881</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44939</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44942</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44942</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>44953</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>44953</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18314,7 +18314,7 @@
         <v>44963</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44964</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44966</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44967</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44977</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44981</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44992</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44992</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44992</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44992</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44992</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44992</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>45001</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>45002</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>45006</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>45014</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>45027</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>45027</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>45033</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>45034</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>45040</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>45051</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>45062</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>45068</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>45070</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>45071</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>45078</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>45078</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>45085</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>45104</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>45105</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>45114</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45144</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>45154</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20267,7 +20267,7 @@
         <v>45159</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20324,7 +20324,7 @@
         <v>45159</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20381,7 +20381,7 @@
         <v>45168</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>

--- a/Översikt TRANÅS.xlsx
+++ b/Översikt TRANÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43321</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>44987</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45162</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43705</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>45027</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>43409</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>44888</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>44900</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>44965</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>45106</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>43348</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43480</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>43487</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>43587</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>43612</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>43633</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43697</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43754</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43790</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43809</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43866</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>44153</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>44239</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>44262</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44735</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>44753</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>44998</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>43325</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43336</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>43368</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43381</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>43382</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>43390</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>43398</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43409</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43426</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43426</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43427</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43430</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43438</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>43439</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43440</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43446</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43448</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43479</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43479</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43480</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43480</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43480</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43480</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43480</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43481</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43511</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43518</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43520</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43529</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>43532</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>43538</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         <v>43556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>43563</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>43564</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43565</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43565</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43580</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43580</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43580</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43580</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43580</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43580</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>43580</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43598</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>43600</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43619</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43620</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43620</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43633</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43634</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>43668</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
         <v>43676</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
         <v>43678</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>43679</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>43682</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>43682</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43684</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>43690</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>43693</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43696</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>43697</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>43700</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>43700</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>43704</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43706</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43707</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43707</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43716</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7693,7 +7693,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43747</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43753</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>43753</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>43753</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>43763</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43766</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43769</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43769</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43769</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>43769</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43769</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43769</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43795</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43796</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43796</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43801</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43801</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43801</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43801</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43801</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43804</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>43811</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>43816</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>43817</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>43832</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>43833</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>43846</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>43853</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>43853</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43853</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43853</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43865</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43865</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43865</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9926,7 +9926,7 @@
         <v>43865</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>43865</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10040,7 +10040,7 @@
         <v>43865</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>43866</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>43866</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>43866</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>43873</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>43878</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>43878</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>43887</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>43892</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>43901</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>43902</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>43902</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>43902</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>43924</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>43949</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>43984</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>43993</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>43994</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>43994</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>43994</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43994</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>43994</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>43994</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44004</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>44012</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>44049</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>44049</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44049</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>44049</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44049</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>44049</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>44049</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44049</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11991,7 +11991,7 @@
         <v>44049</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>44049</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>44049</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>44049</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>44053</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>44053</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>44056</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>44062</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>44068</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>44070</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12581,7 +12581,7 @@
         <v>44074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12638,7 +12638,7 @@
         <v>44088</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>44098</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12752,7 +12752,7 @@
         <v>44102</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12809,7 +12809,7 @@
         <v>44105</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         <v>44105</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12923,7 +12923,7 @@
         <v>44105</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>44116</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>44132</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>44144</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>44144</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>44152</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44161</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>44187</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44214</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44215</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44237</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44239</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44239</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44249</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44250</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44250</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44278</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44287</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44298</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44301</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44341</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44350</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44355</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44356</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44356</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44371</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>44371</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44375</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44377</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44377</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>44386</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44386</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44417</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>44418</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>44420</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>44424</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44460</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44460</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44466</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>44477</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44483</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44489</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44524</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44533</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>44550</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>44552</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>44557</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44565</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44573</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44578</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44580</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44587</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44596</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44599</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44603</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44603</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44609</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44613</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44614</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44621</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44627</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44628</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>44628</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>44630</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>44637</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44691</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44691</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44701</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44714</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44719</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44719</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44719</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44735</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44738</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44743</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44743</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44743</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44771</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44797</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44823</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44834</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44845</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44846</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44853</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44855</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44881</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44881</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44939</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44942</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44942</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>44953</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>44953</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18314,7 +18314,7 @@
         <v>44963</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44964</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44966</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44967</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44977</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44981</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44992</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44992</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44992</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44992</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44992</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44992</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>45001</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>45002</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>45006</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>45014</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>45027</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>45027</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>45033</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>45034</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>45040</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>45051</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>45062</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>45068</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>45070</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>45071</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>45078</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>45078</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>45085</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>45104</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>45105</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>45114</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45144</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>45154</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20267,7 +20267,7 @@
         <v>45159</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20324,7 +20324,7 @@
         <v>45159</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20381,7 +20381,7 @@
         <v>45168</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>

--- a/Översikt TRANÅS.xlsx
+++ b/Översikt TRANÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43321</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>44987</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45162</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43705</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>45027</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>43409</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>44888</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>44900</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>44965</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>45106</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>43348</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43480</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>43487</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>43587</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>43612</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>43633</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43697</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43754</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43790</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43809</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43866</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>44153</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>44239</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>44262</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44735</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>44753</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>44998</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>43325</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43336</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>43368</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43381</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>43382</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>43390</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>43398</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43409</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43426</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43426</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43427</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43430</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43438</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>43439</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43440</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43446</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43448</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43479</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43479</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43480</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43480</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43480</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43480</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43480</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43481</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43511</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43518</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43520</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43529</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>43532</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>43538</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         <v>43556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>43563</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>43564</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43565</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43565</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43580</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43580</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43580</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43580</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43580</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43580</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>43580</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43598</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>43600</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43619</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43620</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43620</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43633</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43634</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>43668</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
         <v>43676</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
         <v>43678</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>43679</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>43682</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>43682</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43684</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>43690</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>43693</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43696</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>43697</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>43700</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>43700</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>43704</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43706</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43707</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43707</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43716</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7693,7 +7693,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43747</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43753</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>43753</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>43753</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>43763</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43766</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43769</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43769</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43769</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>43769</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43769</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43769</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43795</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43796</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43796</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43801</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43801</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43801</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43801</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43801</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43804</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>43811</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>43816</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>43817</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>43832</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>43833</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>43846</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>43853</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>43853</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43853</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43853</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43865</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43865</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43865</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9926,7 +9926,7 @@
         <v>43865</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>43865</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10040,7 +10040,7 @@
         <v>43865</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>43866</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>43866</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>43866</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>43873</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>43878</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>43878</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>43887</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>43892</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>43901</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>43902</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>43902</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>43902</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>43924</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>43949</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>43984</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>43993</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>43994</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>43994</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>43994</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43994</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>43994</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>43994</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44004</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>44012</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>44049</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>44049</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44049</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>44049</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44049</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>44049</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>44049</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44049</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11991,7 +11991,7 @@
         <v>44049</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>44049</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>44049</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>44049</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>44053</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>44053</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>44056</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>44062</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>44068</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>44070</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12581,7 +12581,7 @@
         <v>44074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12638,7 +12638,7 @@
         <v>44088</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>44098</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12752,7 +12752,7 @@
         <v>44102</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12809,7 +12809,7 @@
         <v>44105</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         <v>44105</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12923,7 +12923,7 @@
         <v>44105</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>44116</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>44132</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>44144</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>44144</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>44152</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44161</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>44187</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44214</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44215</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44237</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44239</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44239</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44249</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44250</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44250</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44278</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44287</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44298</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44301</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44341</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44350</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44355</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44356</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44356</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44371</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>44371</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44375</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44377</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44377</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>44386</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44386</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44417</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>44418</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>44420</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>44424</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44460</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44460</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44466</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>44477</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44483</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44489</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44524</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44533</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>44550</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>44552</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>44557</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44565</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44573</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44578</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44580</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44587</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44596</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44599</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44603</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44603</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44609</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44613</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44614</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44621</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44627</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44628</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>44628</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>44630</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>44637</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44691</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44691</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44701</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44714</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44719</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44719</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44719</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44735</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44738</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44743</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44743</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44743</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44771</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44797</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44823</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44834</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44845</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44846</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44853</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44855</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44881</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44881</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44939</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44942</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44942</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>44953</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>44953</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18314,7 +18314,7 @@
         <v>44963</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44964</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44966</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44967</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44977</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44981</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44992</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44992</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44992</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44992</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44992</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44992</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>45001</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>45002</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>45006</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>45014</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>45027</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>45027</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>45033</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>45034</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>45040</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>45051</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>45062</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>45068</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>45070</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>45071</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>45078</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>45078</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>45085</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>45104</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>45105</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>45114</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45144</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>45154</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20267,7 +20267,7 @@
         <v>45159</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20324,7 +20324,7 @@
         <v>45159</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20381,7 +20381,7 @@
         <v>45168</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>

--- a/Översikt TRANÅS.xlsx
+++ b/Översikt TRANÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43321</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>44987</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45162</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43705</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>45027</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>43409</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>44888</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>44900</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>44965</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>45106</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>43348</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43480</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>43487</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>43587</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>43612</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>43633</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43697</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43754</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43790</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43809</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43866</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>44153</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>44239</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>44262</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44735</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>44753</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>44998</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>43325</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43336</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>43368</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43381</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>43382</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>43390</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>43398</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43409</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43426</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43426</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43427</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43430</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43438</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>43439</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43440</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43446</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43448</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43479</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43479</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43480</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43480</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43480</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43480</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43480</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43481</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43511</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43518</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43520</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43529</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>43532</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>43538</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         <v>43556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>43563</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>43564</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43565</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43565</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43580</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43580</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43580</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43580</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43580</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43580</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>43580</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43598</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>43600</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43619</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43620</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43620</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43633</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43634</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>43668</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
         <v>43676</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
         <v>43678</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>43679</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>43682</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>43682</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43684</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>43690</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>43693</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43696</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>43697</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>43700</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>43700</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>43704</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43706</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43707</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43707</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43716</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7693,7 +7693,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43747</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43753</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>43753</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>43753</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>43763</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43766</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43769</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43769</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43769</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>43769</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43769</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43769</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43795</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43796</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43796</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43801</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43801</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43801</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43801</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43801</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43804</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>43811</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>43816</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>43817</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>43832</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>43833</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>43846</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>43853</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>43853</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43853</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43853</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43865</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43865</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43865</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9926,7 +9926,7 @@
         <v>43865</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>43865</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10040,7 +10040,7 @@
         <v>43865</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>43866</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>43866</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>43866</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>43873</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>43878</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>43878</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>43887</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>43892</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>43901</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>43902</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>43902</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>43902</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>43924</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>43949</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>43984</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>43993</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>43994</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>43994</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>43994</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43994</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>43994</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>43994</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44004</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>44012</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>44049</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>44049</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44049</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>44049</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44049</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>44049</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>44049</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44049</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11991,7 +11991,7 @@
         <v>44049</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>44049</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>44049</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>44049</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>44053</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>44053</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>44056</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>44062</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>44068</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>44070</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12581,7 +12581,7 @@
         <v>44074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12638,7 +12638,7 @@
         <v>44088</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>44098</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12752,7 +12752,7 @@
         <v>44102</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12809,7 +12809,7 @@
         <v>44105</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         <v>44105</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12923,7 +12923,7 @@
         <v>44105</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>44116</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>44132</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>44144</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>44144</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>44152</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44161</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>44187</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44214</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44215</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44237</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44239</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44239</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44249</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44250</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44250</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44278</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44287</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44298</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44301</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44341</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44350</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44355</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44356</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44356</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44371</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>44371</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44375</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44377</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44377</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>44386</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44386</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44417</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>44418</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>44420</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>44424</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44460</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44460</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44466</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>44477</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44483</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44489</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44524</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44533</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>44550</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>44552</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>44557</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44565</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44573</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44578</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44580</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44587</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44596</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44599</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44603</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44603</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44609</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44613</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44614</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44621</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44627</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44628</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>44628</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>44630</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>44637</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44691</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44691</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44701</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44714</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44719</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44719</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44719</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44735</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44738</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44743</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44743</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44743</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44771</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44797</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44823</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44834</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44845</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44846</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44853</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44855</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44881</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44881</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44939</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44942</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44942</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>44953</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>44953</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18314,7 +18314,7 @@
         <v>44963</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44964</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44966</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44967</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44977</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44981</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44992</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44992</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44992</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44992</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44992</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44992</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>45001</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>45002</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>45006</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>45014</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>45027</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>45027</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>45033</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>45034</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>45040</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>45051</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>45062</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>45068</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>45070</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>45071</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>45078</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>45078</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>45085</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>45104</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>45105</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>45114</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45144</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>45154</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20267,7 +20267,7 @@
         <v>45159</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20324,7 +20324,7 @@
         <v>45159</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20381,7 +20381,7 @@
         <v>45168</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>

--- a/Översikt TRANÅS.xlsx
+++ b/Översikt TRANÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43321</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>44987</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45162</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43705</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>45027</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>43409</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>44888</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>44900</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>44965</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>45106</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>43348</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43480</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>43487</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>43587</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>43612</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>43633</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43697</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43754</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43790</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43809</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43866</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>44153</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>44239</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>44262</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44735</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>44753</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>44998</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>43325</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43336</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>43368</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43381</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>43382</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>43390</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>43398</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43409</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43426</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43426</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43427</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43430</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43438</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>43439</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43440</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43446</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43448</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43479</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43479</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43480</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43480</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43480</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43480</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43480</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43481</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43511</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43518</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43520</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43529</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>43532</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>43538</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         <v>43556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>43563</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>43564</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43565</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43565</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43580</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43580</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43580</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43580</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43580</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43580</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>43580</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43598</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>43600</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43619</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43620</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43620</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43633</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43634</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>43668</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
         <v>43676</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
         <v>43678</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>43679</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>43682</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>43682</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43684</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>43690</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>43693</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43696</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>43697</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>43700</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>43700</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>43704</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43706</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43707</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43707</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43716</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7693,7 +7693,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43747</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43753</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>43753</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>43753</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>43763</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43766</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43769</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43769</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43769</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>43769</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43769</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43769</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43795</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43796</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43796</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43801</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43801</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43801</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43801</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43801</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43804</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>43811</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>43816</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>43817</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>43832</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>43833</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>43846</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>43853</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>43853</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43853</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43853</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43865</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43865</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43865</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9926,7 +9926,7 @@
         <v>43865</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>43865</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10040,7 +10040,7 @@
         <v>43865</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>43866</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>43866</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>43866</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>43873</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>43878</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>43878</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>43887</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>43892</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>43901</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>43902</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>43902</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>43902</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>43924</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>43949</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>43984</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>43993</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>43994</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>43994</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>43994</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43994</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>43994</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>43994</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44004</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>44012</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>44049</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>44049</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44049</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>44049</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44049</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>44049</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>44049</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44049</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11991,7 +11991,7 @@
         <v>44049</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>44049</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>44049</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>44049</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>44053</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>44053</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>44056</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>44062</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>44068</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>44070</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12581,7 +12581,7 @@
         <v>44074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12638,7 +12638,7 @@
         <v>44088</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>44098</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12752,7 +12752,7 @@
         <v>44102</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12809,7 +12809,7 @@
         <v>44105</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         <v>44105</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12923,7 +12923,7 @@
         <v>44105</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>44116</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>44132</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>44144</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>44144</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>44152</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44161</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>44187</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44214</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44215</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44237</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44239</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44239</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44249</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44250</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44250</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44278</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44287</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44298</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44301</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44341</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44350</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44355</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44356</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44356</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44371</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>44371</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44375</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44377</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44377</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>44386</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44386</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44417</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>44418</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>44420</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>44424</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44460</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44460</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44466</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>44477</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44483</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44489</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44524</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44533</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>44550</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>44552</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>44557</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44565</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44573</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44578</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44580</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44587</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44596</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44599</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44603</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44603</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44609</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44613</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44614</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44621</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44627</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44628</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>44628</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>44630</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>44637</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44691</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44691</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44701</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44714</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44719</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44719</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44719</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44735</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44738</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44743</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44743</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44743</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44771</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44797</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44823</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44834</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44845</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44846</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44853</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44855</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44881</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44881</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44939</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44942</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44942</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>44953</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>44953</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18314,7 +18314,7 @@
         <v>44963</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44964</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44966</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44967</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44977</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44981</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44992</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44992</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44992</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44992</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44992</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44992</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>45001</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>45002</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>45006</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>45014</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>45027</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>45027</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>45033</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>45034</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>45040</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>45051</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>45062</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>45068</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>45070</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>45071</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>45078</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>45078</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>45085</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>45104</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>45105</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>45114</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45144</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>45154</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20267,7 +20267,7 @@
         <v>45159</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20324,7 +20324,7 @@
         <v>45159</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20381,7 +20381,7 @@
         <v>45168</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>

--- a/Översikt TRANÅS.xlsx
+++ b/Översikt TRANÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43321</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>44987</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45162</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43705</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>45027</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>43409</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>44888</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>44900</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>44965</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>45106</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>43348</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43480</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>43487</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>43587</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>43612</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>43633</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43697</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43754</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43790</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43809</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43866</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>44153</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>44239</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>44262</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44735</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>44753</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>44998</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>43325</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43336</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>43368</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43381</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>43382</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>43390</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>43398</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43409</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43426</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43426</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43427</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43430</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43438</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>43439</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43440</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43446</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43448</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43479</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43479</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43480</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43480</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43480</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43480</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43480</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43481</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43511</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43518</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43520</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43529</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>43532</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>43538</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         <v>43556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>43563</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>43564</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43565</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43565</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43580</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43580</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43580</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43580</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43580</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43580</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>43580</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43598</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>43600</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43619</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43620</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43620</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43633</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43634</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>43668</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
         <v>43676</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
         <v>43678</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>43679</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>43682</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>43682</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43684</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>43690</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>43693</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43696</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>43697</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>43700</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>43700</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>43704</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43706</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43707</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43707</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43716</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7693,7 +7693,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43747</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43753</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>43753</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>43753</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>43763</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43766</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43769</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43769</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43769</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>43769</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43769</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43769</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43795</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43796</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43796</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43801</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43801</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43801</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43801</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43801</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43804</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>43811</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>43816</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>43817</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>43832</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>43833</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>43846</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>43853</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>43853</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43853</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43853</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43865</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43865</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43865</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9926,7 +9926,7 @@
         <v>43865</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>43865</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10040,7 +10040,7 @@
         <v>43865</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>43866</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>43866</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>43866</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>43873</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>43878</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>43878</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>43887</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>43892</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>43901</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>43902</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>43902</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>43902</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>43924</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>43949</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>43984</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>43993</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>43994</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>43994</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>43994</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43994</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>43994</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>43994</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44004</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>44012</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>44049</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>44049</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44049</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>44049</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44049</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>44049</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>44049</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44049</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11991,7 +11991,7 @@
         <v>44049</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>44049</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>44049</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>44049</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>44053</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>44053</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>44056</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>44062</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>44068</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>44070</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12581,7 +12581,7 @@
         <v>44074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12638,7 +12638,7 @@
         <v>44088</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>44098</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12752,7 +12752,7 @@
         <v>44102</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12809,7 +12809,7 @@
         <v>44105</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         <v>44105</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12923,7 +12923,7 @@
         <v>44105</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>44116</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>44132</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>44144</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>44144</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>44152</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44161</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>44187</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44214</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44215</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44237</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44239</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44239</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44249</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44250</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44250</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44278</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44287</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44298</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44301</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44341</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44350</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44355</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44356</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44356</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44371</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>44371</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44375</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44377</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44377</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>44386</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44386</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44417</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>44418</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>44420</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>44424</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44460</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44460</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44466</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>44477</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44483</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44489</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44524</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44533</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>44550</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>44552</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>44557</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44565</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44573</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44578</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44580</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44587</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44596</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44599</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44603</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44603</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44609</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44613</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44614</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44621</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44627</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44628</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>44628</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>44630</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>44637</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44691</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44691</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44701</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44714</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44719</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44719</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44719</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44735</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44738</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44743</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44743</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44743</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44771</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44797</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44823</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44834</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44845</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44846</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44853</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44855</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44881</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44881</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44939</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44942</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44942</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>44953</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>44953</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18314,7 +18314,7 @@
         <v>44963</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44964</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44966</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44967</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44977</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44981</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44992</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44992</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44992</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44992</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44992</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44992</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>45001</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>45002</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>45006</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>45014</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>45027</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>45027</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>45033</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>45034</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>45040</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>45051</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>45062</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>45068</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>45070</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>45071</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>45078</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>45078</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>45085</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>45104</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>45105</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>45114</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45144</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>45154</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20267,7 +20267,7 @@
         <v>45159</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20324,7 +20324,7 @@
         <v>45159</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20381,7 +20381,7 @@
         <v>45168</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>

--- a/Översikt TRANÅS.xlsx
+++ b/Översikt TRANÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43321</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>44987</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45162</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43705</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>45027</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>43409</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>44888</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>44900</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>44965</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>45106</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>43348</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43480</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>43487</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>43587</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>43612</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>43633</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43697</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43754</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43790</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43809</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43866</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>44153</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>44239</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>44262</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44735</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>44753</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>44998</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>43325</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43336</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>43368</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43381</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>43382</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>43390</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>43398</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43409</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43426</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43426</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43427</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43430</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43438</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>43439</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43440</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43446</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43448</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43479</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43479</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43480</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43480</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43480</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43480</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43480</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43481</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43511</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43518</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43520</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43529</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>43532</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>43538</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         <v>43556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>43563</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>43564</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43565</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43565</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43580</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43580</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43580</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43580</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43580</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43580</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>43580</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43598</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>43600</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43619</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43620</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43620</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43633</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43634</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>43668</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
         <v>43676</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
         <v>43678</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>43679</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>43682</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>43682</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43684</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>43690</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>43693</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43696</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>43697</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>43700</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>43700</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>43704</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43706</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43707</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43707</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43716</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7693,7 +7693,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43747</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43753</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>43753</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>43753</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>43763</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43766</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43769</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43769</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43769</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>43769</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43769</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43769</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43795</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43796</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43796</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43801</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43801</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43801</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43801</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43801</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43804</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>43811</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>43816</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>43817</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>43832</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>43833</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>43846</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>43853</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>43853</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43853</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43853</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43865</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43865</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43865</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9926,7 +9926,7 @@
         <v>43865</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>43865</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10040,7 +10040,7 @@
         <v>43865</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>43866</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>43866</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>43866</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>43873</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>43878</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>43878</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>43887</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>43892</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>43901</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>43902</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>43902</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>43902</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>43924</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>43949</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>43984</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>43993</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>43994</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>43994</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>43994</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43994</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>43994</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>43994</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44004</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>44012</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>44049</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>44049</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44049</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>44049</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44049</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>44049</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>44049</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44049</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11991,7 +11991,7 @@
         <v>44049</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>44049</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>44049</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>44049</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>44053</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>44053</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>44056</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>44062</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>44068</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>44070</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12581,7 +12581,7 @@
         <v>44074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12638,7 +12638,7 @@
         <v>44088</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>44098</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12752,7 +12752,7 @@
         <v>44102</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12809,7 +12809,7 @@
         <v>44105</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         <v>44105</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12923,7 +12923,7 @@
         <v>44105</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>44116</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>44132</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>44144</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>44144</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>44152</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44161</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>44187</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44214</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44215</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44237</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44239</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44239</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44249</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44250</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44250</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44278</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44287</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44298</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44301</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44341</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44350</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44355</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44356</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44356</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44371</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>44371</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44375</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44377</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44377</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>44386</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44386</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44417</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>44418</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>44420</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>44424</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44460</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44460</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44466</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>44477</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44483</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44489</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44524</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44533</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>44550</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>44552</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>44557</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44565</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44573</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44578</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44580</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44587</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44596</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44599</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44603</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44603</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44609</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44613</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44614</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44621</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44627</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44628</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>44628</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>44630</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>44637</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44691</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44691</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44701</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44714</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44719</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44719</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44719</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44735</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44738</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44743</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44743</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44743</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44771</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44797</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44823</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44834</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44845</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44846</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44853</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44855</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44881</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44881</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44939</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44942</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44942</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>44953</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>44953</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18314,7 +18314,7 @@
         <v>44963</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44964</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44966</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44967</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44977</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44981</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44992</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44992</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44992</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44992</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44992</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44992</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>45001</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>45002</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>45006</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>45014</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>45027</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>45027</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>45033</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>45034</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>45040</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>45051</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>45062</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>45068</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>45070</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>45071</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>45078</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>45078</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>45085</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>45104</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>45105</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>45114</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45144</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>45154</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20267,7 +20267,7 @@
         <v>45159</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20324,7 +20324,7 @@
         <v>45159</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20381,7 +20381,7 @@
         <v>45168</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>

--- a/Översikt TRANÅS.xlsx
+++ b/Översikt TRANÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43321</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>44987</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45162</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43705</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>45027</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>43409</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>44888</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>44900</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>44965</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>45106</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>43348</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43480</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>43487</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>43587</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>43612</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>43633</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43697</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43754</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43790</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43809</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43866</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>44153</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>44239</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>44262</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44735</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>44753</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>44998</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>43325</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43336</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>43368</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43381</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>43382</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>43390</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>43398</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43409</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43426</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43426</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43427</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43430</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43438</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>43439</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43440</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43446</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43448</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43479</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43479</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43480</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43480</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43480</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43480</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43480</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43481</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43511</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43518</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43520</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43529</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>43532</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>43538</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         <v>43556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>43563</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>43564</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43565</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43565</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43580</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43580</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43580</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43580</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43580</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43580</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>43580</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43598</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>43600</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43619</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43620</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43620</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43633</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43634</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>43668</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
         <v>43676</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
         <v>43678</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>43679</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>43682</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>43682</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43684</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>43690</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>43693</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43696</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>43697</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>43700</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>43700</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>43704</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43706</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43707</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43707</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43716</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7693,7 +7693,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43747</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43753</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>43753</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>43753</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>43763</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43766</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43769</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43769</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43769</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>43769</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43769</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43769</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43795</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43796</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43796</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43801</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43801</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43801</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43801</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43801</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43804</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>43811</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>43816</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>43817</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>43832</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>43833</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>43846</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>43853</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>43853</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43853</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43853</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43865</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43865</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43865</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9926,7 +9926,7 @@
         <v>43865</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>43865</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10040,7 +10040,7 @@
         <v>43865</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>43866</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>43866</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>43866</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>43873</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>43878</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>43878</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>43887</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>43892</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>43901</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>43902</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>43902</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>43902</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>43924</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>43949</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>43984</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>43993</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>43994</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>43994</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>43994</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43994</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>43994</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>43994</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44004</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>44012</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>44049</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>44049</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44049</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>44049</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44049</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>44049</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>44049</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44049</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11991,7 +11991,7 @@
         <v>44049</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>44049</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>44049</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>44049</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>44053</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>44053</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>44056</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>44062</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>44068</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>44070</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12581,7 +12581,7 @@
         <v>44074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12638,7 +12638,7 @@
         <v>44088</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>44098</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12752,7 +12752,7 @@
         <v>44102</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12809,7 +12809,7 @@
         <v>44105</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         <v>44105</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12923,7 +12923,7 @@
         <v>44105</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>44116</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>44132</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>44144</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>44144</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>44152</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44161</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>44187</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44214</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44215</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44237</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44239</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44239</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44249</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44250</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44250</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44278</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44287</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44298</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44301</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44341</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44350</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44355</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44356</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44356</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44371</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>44371</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44375</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44377</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44377</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>44386</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44386</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44417</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>44418</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>44420</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>44424</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44460</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44460</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44466</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>44477</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44483</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44489</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44524</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44533</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>44550</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>44552</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>44557</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44565</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44573</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44578</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44580</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44587</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44596</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44599</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44603</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44603</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44609</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44613</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44614</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44621</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44627</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44628</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>44628</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>44630</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>44637</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44691</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44691</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44701</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44714</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44719</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44719</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44719</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44735</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44738</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44743</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44743</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44743</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44771</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44797</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44823</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44834</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44845</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44846</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44853</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44855</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44881</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44881</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44939</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44942</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44942</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>44953</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>44953</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18314,7 +18314,7 @@
         <v>44963</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44964</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44966</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44967</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44977</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44981</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44992</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44992</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44992</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44992</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44992</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44992</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>45001</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>45002</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>45006</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>45014</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>45027</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>45027</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>45033</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>45034</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>45040</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>45051</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>45062</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>45068</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>45070</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>45071</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>45078</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>45078</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>45085</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>45104</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>45105</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>45114</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45144</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>45154</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20267,7 +20267,7 @@
         <v>45159</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20324,7 +20324,7 @@
         <v>45159</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20381,7 +20381,7 @@
         <v>45168</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>

--- a/Översikt TRANÅS.xlsx
+++ b/Översikt TRANÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43321</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>44987</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45162</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43705</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>45027</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>43409</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>44888</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>44900</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>44965</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>45106</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>43348</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43480</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>43487</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>43587</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>43612</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>43633</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43697</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43754</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43790</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43809</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43866</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>44153</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>44239</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>44262</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44735</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>44753</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>44998</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>43325</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43336</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>43368</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43381</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>43382</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>43390</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>43398</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43409</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43426</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43426</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43427</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43430</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43438</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>43439</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43440</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43446</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43448</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43479</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43479</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43480</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43480</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43480</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43480</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43480</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43481</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43511</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43518</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43520</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43529</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>43532</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>43538</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         <v>43556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>43563</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>43564</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43565</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43565</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43580</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43580</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43580</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43580</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43580</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43580</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>43580</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43598</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>43600</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43619</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43620</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43620</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43633</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43634</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>43668</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
         <v>43676</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
         <v>43678</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>43679</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>43682</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>43682</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43684</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>43690</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>43693</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43696</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>43697</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>43700</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>43700</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>43704</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43706</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43707</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43707</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43716</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7693,7 +7693,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43747</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43753</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>43753</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>43753</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>43763</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43766</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43769</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43769</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43769</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>43769</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43769</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43769</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43795</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43796</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43796</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43801</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43801</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43801</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43801</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43801</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43804</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>43811</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>43816</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>43817</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>43832</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>43833</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>43846</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>43853</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>43853</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43853</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43853</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43865</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43865</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43865</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9926,7 +9926,7 @@
         <v>43865</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>43865</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10040,7 +10040,7 @@
         <v>43865</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>43866</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>43866</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>43866</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>43873</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>43878</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>43878</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>43887</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>43892</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>43901</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>43902</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>43902</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>43902</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>43924</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>43949</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>43984</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>43993</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>43994</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>43994</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>43994</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43994</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>43994</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>43994</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44004</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>44012</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>44049</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>44049</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44049</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>44049</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44049</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>44049</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>44049</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44049</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11991,7 +11991,7 @@
         <v>44049</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>44049</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>44049</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>44049</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>44053</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>44053</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>44056</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>44062</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>44068</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>44070</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12581,7 +12581,7 @@
         <v>44074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12638,7 +12638,7 @@
         <v>44088</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>44098</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12752,7 +12752,7 @@
         <v>44102</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12809,7 +12809,7 @@
         <v>44105</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         <v>44105</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12923,7 +12923,7 @@
         <v>44105</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>44116</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>44132</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>44144</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>44144</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>44152</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44161</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>44187</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44214</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44215</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44237</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44239</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44239</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44249</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44250</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44250</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44278</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44287</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44298</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44301</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44341</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44350</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44355</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44356</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44356</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44371</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>44371</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44375</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44377</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44377</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>44386</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44386</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44417</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>44418</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>44420</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>44424</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44460</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44460</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44466</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>44477</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44483</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44489</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44524</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44533</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>44550</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>44552</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>44557</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44565</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44573</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44578</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44580</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44587</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44596</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44599</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44603</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44603</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44609</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44613</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44614</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44621</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44627</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44628</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>44628</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>44630</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>44637</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44691</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44691</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44701</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44714</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44719</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44719</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44719</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44735</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44738</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44743</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44743</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44743</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44771</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44797</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44823</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44834</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44845</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44846</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44853</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44855</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44881</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44881</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44939</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44942</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44942</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>44953</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>44953</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18314,7 +18314,7 @@
         <v>44963</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44964</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44966</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44967</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44977</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44981</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44992</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44992</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44992</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44992</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44992</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44992</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>45001</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>45002</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>45006</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>45014</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>45027</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>45027</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>45033</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>45034</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>45040</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>45051</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>45062</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>45068</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>45070</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>45071</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>45078</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>45078</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>45085</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>45104</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>45105</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>45114</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45144</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>45154</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20267,7 +20267,7 @@
         <v>45159</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20324,7 +20324,7 @@
         <v>45159</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20381,7 +20381,7 @@
         <v>45168</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>

--- a/Översikt TRANÅS.xlsx
+++ b/Översikt TRANÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43321</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -632,31 +632,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 34899-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 34899-2018.xlsx", "A 34899-2018")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 34899-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 34899-2018.png", "A 34899-2018")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/knärot/A 34899-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/knärot/A 34899-2018.png", "A 34899-2018")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 34899-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 34899-2018.docx", "A 34899-2018")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 34899-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 34899-2018.docx", "A 34899-2018")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 34899-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 34899-2018.docx", "A 34899-2018")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 34899-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 34899-2018.docx", "A 34899-2018")</f>
         <v/>
       </c>
     </row>
@@ -670,7 +670,7 @@
         <v>44987</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -724,27 +724,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 10480-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 10480-2023.xlsx", "A 10480-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 10480-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 10480-2023.png", "A 10480-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 10480-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 10480-2023.docx", "A 10480-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 10480-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 10480-2023.docx", "A 10480-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 10480-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 10480-2023.docx", "A 10480-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 10480-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 10480-2023.docx", "A 10480-2023")</f>
         <v/>
       </c>
     </row>
@@ -758,7 +758,7 @@
         <v>45162</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -812,27 +812,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 38452-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 38452-2023.xlsx", "A 38452-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 38452-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 38452-2023.png", "A 38452-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 38452-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 38452-2023.docx", "A 38452-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 38452-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 38452-2023.docx", "A 38452-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 38452-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 38452-2023.docx", "A 38452-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 38452-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 38452-2023.docx", "A 38452-2023")</f>
         <v/>
       </c>
     </row>
@@ -846,7 +846,7 @@
         <v>43705</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -899,27 +899,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 43160-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 43160-2019.xlsx", "A 43160-2019")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 43160-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 43160-2019.png", "A 43160-2019")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 43160-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 43160-2019.docx", "A 43160-2019")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 43160-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 43160-2019.docx", "A 43160-2019")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 43160-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 43160-2019.docx", "A 43160-2019")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 43160-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 43160-2019.docx", "A 43160-2019")</f>
         <v/>
       </c>
     </row>
@@ -933,7 +933,7 @@
         <v>45027</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -986,27 +986,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 16602-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 16602-2023.xlsx", "A 16602-2023")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 16602-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 16602-2023.png", "A 16602-2023")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 16602-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 16602-2023.docx", "A 16602-2023")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 16602-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 16602-2023.docx", "A 16602-2023")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 16602-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 16602-2023.docx", "A 16602-2023")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 16602-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 16602-2023.docx", "A 16602-2023")</f>
         <v/>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
         <v>43409</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1072,27 +1072,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 60744-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 60744-2018.xlsx", "A 60744-2018")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 60744-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 60744-2018.png", "A 60744-2018")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 60744-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 60744-2018.docx", "A 60744-2018")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 60744-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 60744-2018.docx", "A 60744-2018")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 60744-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 60744-2018.docx", "A 60744-2018")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 60744-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 60744-2018.docx", "A 60744-2018")</f>
         <v/>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
         <v>44888</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1158,27 +1158,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 55701-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 55701-2022.xlsx", "A 55701-2022")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 55701-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 55701-2022.png", "A 55701-2022")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 55701-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 55701-2022.docx", "A 55701-2022")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 55701-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 55701-2022.docx", "A 55701-2022")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 55701-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 55701-2022.docx", "A 55701-2022")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 55701-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 55701-2022.docx", "A 55701-2022")</f>
         <v/>
       </c>
     </row>
@@ -1192,7 +1192,7 @@
         <v>44900</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1244,27 +1244,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 59543-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 59543-2022.xlsx", "A 59543-2022")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 59543-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 59543-2022.png", "A 59543-2022")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 59543-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 59543-2022.docx", "A 59543-2022")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 59543-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 59543-2022.docx", "A 59543-2022")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 59543-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 59543-2022.docx", "A 59543-2022")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 59543-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 59543-2022.docx", "A 59543-2022")</f>
         <v/>
       </c>
     </row>
@@ -1278,7 +1278,7 @@
         <v>44965</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1330,27 +1330,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 6307-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 6307-2023.xlsx", "A 6307-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 6307-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 6307-2023.png", "A 6307-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 6307-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 6307-2023.docx", "A 6307-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 6307-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 6307-2023.docx", "A 6307-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 6307-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 6307-2023.docx", "A 6307-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 6307-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 6307-2023.docx", "A 6307-2023")</f>
         <v/>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
         <v>45106</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1416,27 +1416,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 29486-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 29486-2023.xlsx", "A 29486-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 29486-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 29486-2023.png", "A 29486-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 29486-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 29486-2023.docx", "A 29486-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 29486-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 29486-2023.docx", "A 29486-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 29486-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 29486-2023.docx", "A 29486-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 29486-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 29486-2023.docx", "A 29486-2023")</f>
         <v/>
       </c>
     </row>
@@ -1450,7 +1450,7 @@
         <v>43348</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1501,27 +1501,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 41219-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 41219-2018.xlsx", "A 41219-2018")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 41219-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 41219-2018.png", "A 41219-2018")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 41219-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 41219-2018.docx", "A 41219-2018")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 41219-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 41219-2018.docx", "A 41219-2018")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 41219-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 41219-2018.docx", "A 41219-2018")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 41219-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 41219-2018.docx", "A 41219-2018")</f>
         <v/>
       </c>
     </row>
@@ -1535,7 +1535,7 @@
         <v>43480</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1586,27 +1586,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 3222-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 3222-2019.xlsx", "A 3222-2019")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 3222-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 3222-2019.png", "A 3222-2019")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 3222-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 3222-2019.docx", "A 3222-2019")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 3222-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 3222-2019.docx", "A 3222-2019")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 3222-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 3222-2019.docx", "A 3222-2019")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 3222-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 3222-2019.docx", "A 3222-2019")</f>
         <v/>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
         <v>43487</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1671,27 +1671,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 6531-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 6531-2019.xlsx", "A 6531-2019")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 6531-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 6531-2019.png", "A 6531-2019")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 6531-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 6531-2019.docx", "A 6531-2019")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 6531-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 6531-2019.docx", "A 6531-2019")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 6531-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 6531-2019.docx", "A 6531-2019")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 6531-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 6531-2019.docx", "A 6531-2019")</f>
         <v/>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
         <v>43587</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1761,27 +1761,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 22477-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 22477-2019.xlsx", "A 22477-2019")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 22477-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 22477-2019.png", "A 22477-2019")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 22477-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 22477-2019.docx", "A 22477-2019")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 22477-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 22477-2019.docx", "A 22477-2019")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 22477-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 22477-2019.docx", "A 22477-2019")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 22477-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 22477-2019.docx", "A 22477-2019")</f>
         <v/>
       </c>
     </row>
@@ -1795,7 +1795,7 @@
         <v>43612</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1846,27 +1846,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 26629-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 26629-2019.xlsx", "A 26629-2019")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 26629-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 26629-2019.png", "A 26629-2019")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 26629-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 26629-2019.docx", "A 26629-2019")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 26629-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 26629-2019.docx", "A 26629-2019")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 26629-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 26629-2019.docx", "A 26629-2019")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 26629-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 26629-2019.docx", "A 26629-2019")</f>
         <v/>
       </c>
     </row>
@@ -1880,7 +1880,7 @@
         <v>43633</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1931,27 +1931,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 29990-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 29990-2019.xlsx", "A 29990-2019")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 29990-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 29990-2019.png", "A 29990-2019")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 29990-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 29990-2019.docx", "A 29990-2019")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 29990-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 29990-2019.docx", "A 29990-2019")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 29990-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 29990-2019.docx", "A 29990-2019")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 29990-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 29990-2019.docx", "A 29990-2019")</f>
         <v/>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
         <v>43697</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2016,31 +2016,31 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 40949-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 40949-2019.xlsx", "A 40949-2019")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 40949-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 40949-2019.png", "A 40949-2019")</f>
         <v/>
       </c>
       <c r="U18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/knärot/A 40949-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/knärot/A 40949-2019.png", "A 40949-2019")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 40949-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 40949-2019.docx", "A 40949-2019")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 40949-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 40949-2019.docx", "A 40949-2019")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 40949-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 40949-2019.docx", "A 40949-2019")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 40949-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 40949-2019.docx", "A 40949-2019")</f>
         <v/>
       </c>
     </row>
@@ -2054,7 +2054,7 @@
         <v>43754</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2105,27 +2105,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 54655-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 54655-2019.xlsx", "A 54655-2019")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 54655-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 54655-2019.png", "A 54655-2019")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 54655-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 54655-2019.docx", "A 54655-2019")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 54655-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 54655-2019.docx", "A 54655-2019")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 54655-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 54655-2019.docx", "A 54655-2019")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 54655-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 54655-2019.docx", "A 54655-2019")</f>
         <v/>
       </c>
     </row>
@@ -2139,7 +2139,7 @@
         <v>43790</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2190,27 +2190,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 62740-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 62740-2019.xlsx", "A 62740-2019")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 62740-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 62740-2019.png", "A 62740-2019")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 62740-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 62740-2019.docx", "A 62740-2019")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 62740-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 62740-2019.docx", "A 62740-2019")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 62740-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 62740-2019.docx", "A 62740-2019")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 62740-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 62740-2019.docx", "A 62740-2019")</f>
         <v/>
       </c>
     </row>
@@ -2224,7 +2224,7 @@
         <v>43809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2275,27 +2275,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 67740-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 67740-2019.xlsx", "A 67740-2019")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 67740-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 67740-2019.png", "A 67740-2019")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 67740-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 67740-2019.docx", "A 67740-2019")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 67740-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 67740-2019.docx", "A 67740-2019")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 67740-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 67740-2019.docx", "A 67740-2019")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 67740-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 67740-2019.docx", "A 67740-2019")</f>
         <v/>
       </c>
     </row>
@@ -2309,7 +2309,7 @@
         <v>43809</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2360,27 +2360,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 67742-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 67742-2019.xlsx", "A 67742-2019")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 67742-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 67742-2019.png", "A 67742-2019")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 67742-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 67742-2019.docx", "A 67742-2019")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 67742-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 67742-2019.docx", "A 67742-2019")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 67742-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 67742-2019.docx", "A 67742-2019")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 67742-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 67742-2019.docx", "A 67742-2019")</f>
         <v/>
       </c>
     </row>
@@ -2394,7 +2394,7 @@
         <v>43866</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2445,27 +2445,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 6334-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 6334-2020.xlsx", "A 6334-2020")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 6334-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 6334-2020.png", "A 6334-2020")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 6334-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 6334-2020.docx", "A 6334-2020")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 6334-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 6334-2020.docx", "A 6334-2020")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 6334-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 6334-2020.docx", "A 6334-2020")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 6334-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 6334-2020.docx", "A 6334-2020")</f>
         <v/>
       </c>
     </row>
@@ -2479,7 +2479,7 @@
         <v>44153</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2530,27 +2530,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 60658-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 60658-2020.xlsx", "A 60658-2020")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 60658-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 60658-2020.png", "A 60658-2020")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 60658-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 60658-2020.docx", "A 60658-2020")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 60658-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 60658-2020.docx", "A 60658-2020")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 60658-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 60658-2020.docx", "A 60658-2020")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 60658-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 60658-2020.docx", "A 60658-2020")</f>
         <v/>
       </c>
     </row>
@@ -2564,7 +2564,7 @@
         <v>44239</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2615,27 +2615,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 7365-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 7365-2021.xlsx", "A 7365-2021")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 7365-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 7365-2021.png", "A 7365-2021")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 7365-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 7365-2021.docx", "A 7365-2021")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 7365-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 7365-2021.docx", "A 7365-2021")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 7365-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 7365-2021.docx", "A 7365-2021")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 7365-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 7365-2021.docx", "A 7365-2021")</f>
         <v/>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
         <v>44262</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2700,27 +2700,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 11278-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 11278-2021.xlsx", "A 11278-2021")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 11278-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 11278-2021.png", "A 11278-2021")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 11278-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 11278-2021.docx", "A 11278-2021")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 11278-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 11278-2021.docx", "A 11278-2021")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 11278-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 11278-2021.docx", "A 11278-2021")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 11278-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 11278-2021.docx", "A 11278-2021")</f>
         <v/>
       </c>
     </row>
@@ -2734,7 +2734,7 @@
         <v>44735</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2785,27 +2785,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 26395-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 26395-2022.xlsx", "A 26395-2022")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 26395-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 26395-2022.png", "A 26395-2022")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 26395-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 26395-2022.docx", "A 26395-2022")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 26395-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 26395-2022.docx", "A 26395-2022")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 26395-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 26395-2022.docx", "A 26395-2022")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 26395-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 26395-2022.docx", "A 26395-2022")</f>
         <v/>
       </c>
     </row>
@@ -2819,7 +2819,7 @@
         <v>44753</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2870,27 +2870,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 29382-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 29382-2022.xlsx", "A 29382-2022")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 29382-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 29382-2022.png", "A 29382-2022")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 29382-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 29382-2022.docx", "A 29382-2022")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 29382-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 29382-2022.docx", "A 29382-2022")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 29382-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 29382-2022.docx", "A 29382-2022")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 29382-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 29382-2022.docx", "A 29382-2022")</f>
         <v/>
       </c>
     </row>
@@ -2904,7 +2904,7 @@
         <v>44998</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2955,27 +2955,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 12437-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/artfynd/A 12437-2023.xlsx", "A 12437-2023")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 12437-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/kartor/A 12437-2023.png", "A 12437-2023")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 12437-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomål/A 12437-2023.docx", "A 12437-2023")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 12437-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/klagomålsmail/A 12437-2023.docx", "A 12437-2023")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 12437-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsyn/A 12437-2023.docx", "A 12437-2023")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 12437-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANAS/tillsynsmail/A 12437-2023.docx", "A 12437-2023")</f>
         <v/>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
         <v>43325</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43336</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>43368</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43381</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>43382</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>43390</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>43398</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43409</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43426</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43426</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43427</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43430</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43438</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>43439</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43440</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43446</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43448</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43479</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43479</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43480</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43480</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43480</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43480</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43480</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43481</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43511</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43518</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43520</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43529</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>43532</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>43538</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         <v>43556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>43563</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>43564</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43565</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43565</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43580</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43580</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43580</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43580</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43580</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43580</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>43580</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43598</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>43600</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43619</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43620</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43620</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43633</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43634</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>43668</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
         <v>43676</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
         <v>43678</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>43679</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>43682</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>43682</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43684</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>43690</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>43693</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43696</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>43697</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>43700</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>43700</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>43704</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43706</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43707</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43707</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43716</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7693,7 +7693,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43747</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43753</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>43753</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>43753</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>43763</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43766</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43769</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43769</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43769</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>43769</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43769</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43769</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43795</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43796</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43796</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43801</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43801</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43801</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43801</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43801</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43804</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>43811</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>43816</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>43817</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>43832</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>43833</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>43846</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>43853</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>43853</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43853</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43853</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43865</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43865</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43865</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9926,7 +9926,7 @@
         <v>43865</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>43865</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10040,7 +10040,7 @@
         <v>43865</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>43866</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>43866</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>43866</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>43873</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>43878</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>43878</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>43887</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>43892</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>43901</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>43902</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>43902</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>43902</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>43924</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>43949</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>43984</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>43993</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>43994</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>43994</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>43994</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43994</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>43994</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>43994</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44004</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>44012</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>44049</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>44049</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44049</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>44049</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44049</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>44049</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>44049</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44049</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11991,7 +11991,7 @@
         <v>44049</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>44049</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>44049</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>44049</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>44053</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>44053</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>44056</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>44062</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>44068</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>44070</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12581,7 +12581,7 @@
         <v>44074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12638,7 +12638,7 @@
         <v>44088</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>44098</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12752,7 +12752,7 @@
         <v>44102</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12809,7 +12809,7 @@
         <v>44105</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         <v>44105</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12923,7 +12923,7 @@
         <v>44105</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>44116</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>44132</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>44144</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>44144</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>44152</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44161</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>44187</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44214</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44215</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44237</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44239</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44239</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44249</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44250</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44250</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44278</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44287</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44298</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44301</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44341</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44350</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44355</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44356</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44356</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44371</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>44371</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44375</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44377</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44377</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>44386</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44386</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44417</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>44418</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>44420</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>44424</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44460</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44460</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44466</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>44477</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44483</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44489</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44524</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44533</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>44550</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>44552</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>44557</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44565</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44573</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44578</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44580</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44587</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44596</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44599</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44603</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44603</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44609</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44613</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44614</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44621</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44627</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44628</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>44628</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>44630</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>44637</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44691</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44691</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44701</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44714</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44719</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44719</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44719</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44735</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44738</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44743</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44743</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44743</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44771</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44797</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44823</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44834</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44845</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44846</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44853</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44855</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44881</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44881</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44939</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44942</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44942</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>44953</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>44953</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18314,7 +18314,7 @@
         <v>44963</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44964</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44966</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44967</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44977</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44981</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44992</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44992</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44992</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44992</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44992</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44992</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>45001</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>45002</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>45006</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>45014</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>45027</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>45027</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>45033</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>45034</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>45040</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>45051</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>45062</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>45068</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>45070</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>45071</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>45078</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>45078</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>45085</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>45104</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>45105</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>45114</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45144</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>45154</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20267,7 +20267,7 @@
         <v>45159</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20324,7 +20324,7 @@
         <v>45159</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20381,7 +20381,7 @@
         <v>45168</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>

--- a/Översikt TRANÅS.xlsx
+++ b/Översikt TRANÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43321</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>44987</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45162</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43705</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>45027</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>43409</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>44888</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>44900</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>44965</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>45106</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>43348</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43480</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>43487</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>43587</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>43612</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>43633</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43697</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43754</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43790</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43809</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43866</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>44153</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>44239</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>44262</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44735</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>44753</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>44998</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>43325</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43336</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>43368</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43381</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>43382</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>43390</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>43398</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43409</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43426</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43426</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43427</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43430</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43438</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>43439</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43440</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43446</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43448</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43479</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43479</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43480</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43480</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43480</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43480</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43480</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43481</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43511</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43518</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43520</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43529</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>43532</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>43538</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         <v>43556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>43563</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>43564</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43565</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43565</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43580</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43580</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43580</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43580</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43580</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43580</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>43580</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43598</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>43600</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43619</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43620</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43620</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43633</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43634</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>43668</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
         <v>43676</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
         <v>43678</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>43679</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>43682</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>43682</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43684</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>43690</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>43693</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43696</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>43697</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>43700</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>43700</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>43704</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43706</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43707</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43707</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43716</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7693,7 +7693,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43747</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43753</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>43753</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>43753</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>43763</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43766</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43769</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43769</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43769</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>43769</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43769</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43769</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43795</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43796</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43796</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43801</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43801</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43801</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43801</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43801</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43804</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>43811</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>43816</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>43817</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>43832</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>43833</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>43846</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>43853</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>43853</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43853</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43853</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43865</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43865</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43865</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9926,7 +9926,7 @@
         <v>43865</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>43865</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10040,7 +10040,7 @@
         <v>43865</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>43866</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>43866</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>43866</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>43873</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>43878</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>43878</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>43887</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>43892</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>43901</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>43902</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>43902</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>43902</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>43924</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>43949</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>43984</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>43993</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>43994</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>43994</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>43994</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43994</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>43994</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>43994</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44004</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>44012</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>44049</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>44049</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44049</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>44049</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44049</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>44049</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>44049</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44049</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11991,7 +11991,7 @@
         <v>44049</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>44049</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>44049</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>44049</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>44053</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>44053</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>44056</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>44062</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>44068</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>44070</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12581,7 +12581,7 @@
         <v>44074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12638,7 +12638,7 @@
         <v>44088</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>44098</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12752,7 +12752,7 @@
         <v>44102</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12809,7 +12809,7 @@
         <v>44105</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         <v>44105</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12923,7 +12923,7 @@
         <v>44105</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>44116</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>44132</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>44144</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>44144</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>44152</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44161</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>44187</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44214</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44215</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44237</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44239</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44239</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44249</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44250</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44250</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44278</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44287</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44298</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44301</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44341</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44350</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44355</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44356</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44356</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44371</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>44371</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44375</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44377</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44377</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>44386</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44386</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44417</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>44418</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>44420</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>44424</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44460</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44460</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44466</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>44477</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44483</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44489</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44524</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44533</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>44550</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>44552</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>44557</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44565</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44573</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44578</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44580</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44587</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44596</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44599</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44603</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44603</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44609</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44613</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44614</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44621</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44627</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44628</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>44628</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>44630</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>44637</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44691</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44691</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44701</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44714</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44719</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44719</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44719</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44735</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44738</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44743</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44743</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44743</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44771</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44797</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44823</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44834</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44845</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44846</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44853</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44855</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44881</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44881</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44939</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44942</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44942</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>44953</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>44953</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18314,7 +18314,7 @@
         <v>44963</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44964</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44966</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44967</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44977</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44981</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44992</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44992</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44992</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44992</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44992</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44992</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>45001</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>45002</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>45006</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>45014</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>45027</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>45027</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>45033</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>45034</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>45040</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>45051</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>45062</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>45068</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>45070</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>45071</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>45078</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>45078</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>45085</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>45104</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>45105</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>45114</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45144</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>45154</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20267,7 +20267,7 @@
         <v>45159</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20324,7 +20324,7 @@
         <v>45159</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20381,7 +20381,7 @@
         <v>45168</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>

--- a/Översikt TRANÅS.xlsx
+++ b/Översikt TRANÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43321</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>44987</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45162</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43705</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>45027</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>43409</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>44888</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>44900</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>44965</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>45106</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>43348</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43480</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>43487</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>43587</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>43612</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>43633</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43697</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43754</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43790</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43809</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43866</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>44153</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>44239</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>44262</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44735</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>44753</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>44998</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>43325</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43336</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>43368</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43381</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>43382</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>43390</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>43398</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43409</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43426</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43426</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43427</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43430</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43438</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>43439</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43440</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43446</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43448</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43479</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43479</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43480</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43480</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43480</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43480</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43480</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43481</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43511</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43518</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43520</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43529</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>43532</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>43538</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         <v>43556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>43563</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>43564</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43565</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43565</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43580</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43580</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43580</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43580</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43580</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43580</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>43580</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43598</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>43600</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43619</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43620</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43620</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43633</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43634</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>43668</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
         <v>43676</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
         <v>43678</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>43679</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>43682</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>43682</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43684</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>43690</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>43693</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43696</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>43697</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>43700</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>43700</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>43704</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43706</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43707</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43707</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43716</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7693,7 +7693,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43747</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43753</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>43753</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>43753</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>43763</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43766</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43769</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43769</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43769</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>43769</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43769</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43769</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43795</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43796</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43796</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43801</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43801</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43801</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43801</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43801</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43804</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>43811</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>43816</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>43817</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>43832</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>43833</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>43846</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>43853</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>43853</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43853</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43853</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43865</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43865</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43865</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9926,7 +9926,7 @@
         <v>43865</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>43865</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10040,7 +10040,7 @@
         <v>43865</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>43866</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>43866</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>43866</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>43873</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>43878</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>43878</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>43887</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>43892</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>43901</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>43902</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>43902</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>43902</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>43924</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>43949</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>43984</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>43993</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>43994</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>43994</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>43994</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43994</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>43994</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>43994</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44004</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>44012</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>44049</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>44049</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44049</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>44049</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44049</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>44049</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>44049</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44049</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11991,7 +11991,7 @@
         <v>44049</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>44049</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>44049</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>44049</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>44053</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>44053</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>44056</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>44062</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>44068</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>44070</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12581,7 +12581,7 @@
         <v>44074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12638,7 +12638,7 @@
         <v>44088</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>44098</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12752,7 +12752,7 @@
         <v>44102</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12809,7 +12809,7 @@
         <v>44105</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         <v>44105</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12923,7 +12923,7 @@
         <v>44105</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>44116</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>44132</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>44144</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>44144</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>44152</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44161</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>44187</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44214</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44215</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44237</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44239</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44239</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44249</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44250</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44250</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44278</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44287</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44298</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44301</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44341</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44350</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44355</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44356</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44356</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44371</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>44371</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44375</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44377</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44377</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>44386</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44386</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44417</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>44418</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>44420</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>44424</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44460</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44460</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44466</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>44477</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44483</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44489</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44524</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44533</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>44550</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>44552</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>44557</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44565</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44573</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44578</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44580</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44587</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44596</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44599</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44603</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44603</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44609</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44613</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44614</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44621</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44627</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44628</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>44628</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>44630</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>44637</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44691</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44691</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44701</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44714</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44719</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44719</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44719</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44735</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44738</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44743</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44743</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44743</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44771</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44797</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44823</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44834</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44845</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44846</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44853</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44855</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44881</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44881</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44939</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44942</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44942</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>44953</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>44953</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18314,7 +18314,7 @@
         <v>44963</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44964</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44966</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44967</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44977</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44981</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44992</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44992</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44992</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44992</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44992</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44992</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>45001</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>45002</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>45006</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>45014</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>45027</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>45027</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>45033</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>45034</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>45040</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>45051</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>45062</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>45068</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>45070</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>45071</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>45078</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>45078</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>45085</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>45104</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>45105</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>45114</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45144</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>45154</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20267,7 +20267,7 @@
         <v>45159</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20324,7 +20324,7 @@
         <v>45159</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20381,7 +20381,7 @@
         <v>45168</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>

--- a/Översikt TRANÅS.xlsx
+++ b/Översikt TRANÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43321</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>44987</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45162</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43705</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>45027</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>43409</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>44888</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>44900</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>44965</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>45106</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>43348</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43480</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>43487</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>43587</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>43612</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>43633</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43697</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43754</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43790</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43809</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43866</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>44153</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>44239</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>44262</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44735</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>44753</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>44998</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>43325</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43336</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>43368</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43381</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>43382</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>43390</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>43398</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43409</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43426</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43426</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43427</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43430</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43438</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>43439</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43440</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43446</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43448</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43479</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43479</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43480</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43480</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43480</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43480</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43480</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43481</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43511</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43518</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43520</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43529</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>43532</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>43538</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         <v>43556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>43563</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>43564</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43565</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43565</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43580</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43580</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43580</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43580</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43580</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43580</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>43580</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43598</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>43600</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43619</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43620</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43620</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43633</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43634</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>43668</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
         <v>43676</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
         <v>43678</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>43679</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>43682</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>43682</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43684</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>43690</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>43693</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43696</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>43697</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>43700</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>43700</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>43704</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43706</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43707</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43707</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43716</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7693,7 +7693,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43747</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43753</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>43753</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>43753</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>43763</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43766</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43769</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43769</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43769</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>43769</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43769</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43769</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43795</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43796</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43796</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43801</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43801</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43801</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43801</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43801</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43804</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>43811</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>43816</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>43817</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>43832</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>43833</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>43846</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>43853</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>43853</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43853</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43853</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43865</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43865</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43865</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9926,7 +9926,7 @@
         <v>43865</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>43865</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10040,7 +10040,7 @@
         <v>43865</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>43866</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>43866</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>43866</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>43873</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>43878</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>43878</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>43887</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>43892</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>43901</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>43902</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>43902</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>43902</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>43924</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>43949</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>43984</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>43993</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>43994</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>43994</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>43994</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43994</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>43994</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>43994</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44004</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>44012</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>44049</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>44049</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44049</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>44049</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44049</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>44049</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>44049</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44049</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11991,7 +11991,7 @@
         <v>44049</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>44049</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>44049</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>44049</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>44053</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>44053</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>44056</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>44062</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>44068</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>44070</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12581,7 +12581,7 @@
         <v>44074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12638,7 +12638,7 @@
         <v>44088</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>44098</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12752,7 +12752,7 @@
         <v>44102</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12809,7 +12809,7 @@
         <v>44105</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         <v>44105</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12923,7 +12923,7 @@
         <v>44105</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>44116</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>44132</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>44144</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>44144</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>44152</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44161</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>44187</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44214</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44215</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44237</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44239</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44239</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44249</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44250</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44250</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44278</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44287</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44298</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44301</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44341</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44350</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44355</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44356</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44356</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44371</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>44371</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44375</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44377</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44377</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>44386</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44386</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44417</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>44418</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>44420</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>44424</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44460</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44460</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44466</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>44477</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44483</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44489</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44524</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44533</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>44550</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>44552</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>44557</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44565</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44573</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44578</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44580</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44587</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44596</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44599</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44603</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44603</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44609</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44613</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44614</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44621</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44627</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44628</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>44628</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>44630</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>44637</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44691</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44691</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44701</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44714</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44719</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44719</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44719</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44735</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44738</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44743</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44743</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44743</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44771</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44797</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44823</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44834</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44845</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44846</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44853</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44855</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44881</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44881</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44939</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44942</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44942</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>44953</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>44953</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18314,7 +18314,7 @@
         <v>44963</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44964</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44966</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44967</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44977</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44981</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44992</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44992</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44992</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44992</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44992</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44992</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>45001</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>45002</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>45006</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>45014</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>45027</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>45027</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>45033</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>45034</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>45040</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>45051</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>45062</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>45068</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>45070</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>45071</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>45078</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>45078</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>45085</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>45104</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>45105</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>45114</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45144</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>45154</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20267,7 +20267,7 @@
         <v>45159</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20324,7 +20324,7 @@
         <v>45159</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20381,7 +20381,7 @@
         <v>45168</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>

--- a/Översikt TRANÅS.xlsx
+++ b/Översikt TRANÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43321</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>44987</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45162</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43705</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>45027</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>43409</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>44888</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>44900</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>44965</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>45106</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>43348</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43480</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>43487</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>43587</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>43612</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>43633</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43697</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43754</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43790</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43809</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43866</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>44153</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>44239</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>44262</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44735</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>44753</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>44998</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>43325</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43336</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>43368</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43381</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>43382</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>43390</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>43398</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43409</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43426</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43426</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43427</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43430</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43438</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>43439</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43440</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43446</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43448</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43479</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43479</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43480</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43480</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43480</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43480</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43480</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43481</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43511</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43518</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43520</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43529</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>43532</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>43538</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         <v>43556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>43563</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>43564</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43565</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43565</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43580</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43580</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43580</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43580</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43580</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43580</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>43580</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43598</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>43600</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43619</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43620</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43620</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43633</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43634</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>43668</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
         <v>43676</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
         <v>43678</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>43679</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>43682</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>43682</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43684</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>43690</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>43693</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43696</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>43697</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>43700</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>43700</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>43704</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43706</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43707</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43707</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43716</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7693,7 +7693,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43747</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43753</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>43753</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>43753</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>43763</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43766</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43769</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43769</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43769</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>43769</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43769</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43769</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43795</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43796</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43796</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43801</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43801</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43801</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43801</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43801</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43804</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>43811</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>43816</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>43817</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>43832</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>43833</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>43846</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>43853</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>43853</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43853</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43853</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43865</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43865</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43865</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9926,7 +9926,7 @@
         <v>43865</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>43865</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10040,7 +10040,7 @@
         <v>43865</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>43866</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>43866</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>43866</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>43873</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>43878</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>43878</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>43887</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>43892</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>43901</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>43902</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>43902</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>43902</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>43924</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>43949</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>43984</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>43993</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>43994</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>43994</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>43994</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43994</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>43994</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>43994</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44004</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>44012</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>44049</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>44049</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44049</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>44049</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44049</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>44049</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>44049</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44049</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11991,7 +11991,7 @@
         <v>44049</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>44049</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>44049</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>44049</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>44053</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>44053</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>44056</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>44062</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>44068</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>44070</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12581,7 +12581,7 @@
         <v>44074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12638,7 +12638,7 @@
         <v>44088</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>44098</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12752,7 +12752,7 @@
         <v>44102</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12809,7 +12809,7 @@
         <v>44105</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         <v>44105</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12923,7 +12923,7 @@
         <v>44105</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>44116</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>44132</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>44144</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>44144</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>44152</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44161</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>44187</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44214</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44215</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44237</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44239</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44239</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44249</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44250</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44250</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44278</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44287</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44298</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44301</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44341</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44350</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44355</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44356</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44356</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44371</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>44371</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44375</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44377</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44377</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>44386</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44386</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44417</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>44418</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>44420</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>44424</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44460</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44460</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44466</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>44477</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44483</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44489</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44524</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44533</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>44550</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>44552</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>44557</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44565</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44573</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44578</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44580</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44587</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44596</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44599</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44603</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44603</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44609</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44613</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44614</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44621</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44627</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44628</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>44628</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>44630</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>44637</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44691</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44691</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44701</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44714</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44719</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44719</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44719</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44735</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44738</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44743</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44743</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44743</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44771</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44797</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44823</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44834</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44845</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44846</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44853</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44855</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44881</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44881</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44939</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44942</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44942</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>44953</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>44953</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18314,7 +18314,7 @@
         <v>44963</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44964</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44966</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44967</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44977</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44981</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44992</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44992</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44992</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44992</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44992</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44992</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>45001</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>45002</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>45006</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>45014</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>45027</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>45027</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>45033</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>45034</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>45040</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>45051</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>45062</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>45068</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>45070</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>45071</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>45078</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>45078</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>45085</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>45104</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>45105</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>45114</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45144</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>45154</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20267,7 +20267,7 @@
         <v>45159</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20324,7 +20324,7 @@
         <v>45159</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20381,7 +20381,7 @@
         <v>45168</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>

--- a/Översikt TRANÅS.xlsx
+++ b/Översikt TRANÅS.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y331"/>
+  <dimension ref="A1:Y332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43321</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>44987</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45162</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43705</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>45027</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>43409</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>44888</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>44900</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>44965</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>45106</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>43348</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43480</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>43487</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>43587</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>43612</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>43633</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43697</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43754</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43790</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43809</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43866</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>44153</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>44239</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>44262</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44735</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>44753</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>44998</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>43325</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43336</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>43368</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43381</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>43382</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>43390</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>43398</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43409</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43426</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43426</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43427</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43430</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43438</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>43439</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43440</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43446</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43448</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43479</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43479</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43480</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43480</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43480</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43480</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43480</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43481</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43511</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43518</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43520</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43529</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>43532</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>43538</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         <v>43556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>43563</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>43564</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43565</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43565</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43580</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43580</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43580</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43580</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43580</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43580</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>43580</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43598</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>43600</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43619</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43620</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43620</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43633</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43634</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>43668</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
         <v>43676</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
         <v>43678</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>43679</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>43682</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>43682</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43684</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>43690</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>43693</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43696</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>43697</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>43700</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>43700</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>43704</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43706</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43707</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43707</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43716</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7693,7 +7693,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43747</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43753</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>43753</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>43753</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>43763</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43766</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43769</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43769</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43769</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>43769</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43769</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43769</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43795</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43796</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43796</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43801</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43801</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43801</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43801</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43801</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43804</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>43811</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>43816</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>43817</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>43832</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>43833</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>43846</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>43853</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>43853</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43853</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43853</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43865</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43865</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43865</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9926,7 +9926,7 @@
         <v>43865</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>43865</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10040,7 +10040,7 @@
         <v>43865</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>43866</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>43866</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>43866</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>43873</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>43878</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>43878</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>43887</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>43892</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>43901</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>43902</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>43902</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>43902</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>43924</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>43949</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>43984</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>43993</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>43994</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>43994</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>43994</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43994</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>43994</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>43994</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44004</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>44012</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>44049</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>44049</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44049</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>44049</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44049</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>44049</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>44049</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44049</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11991,7 +11991,7 @@
         <v>44049</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>44049</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>44049</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>44049</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>44053</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>44053</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>44056</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>44062</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>44068</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>44070</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12581,7 +12581,7 @@
         <v>44074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12638,7 +12638,7 @@
         <v>44088</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>44098</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12752,7 +12752,7 @@
         <v>44102</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12809,7 +12809,7 @@
         <v>44105</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         <v>44105</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12923,7 +12923,7 @@
         <v>44105</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>44116</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>44132</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>44144</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>44144</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>44152</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44161</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>44187</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44214</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44215</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44237</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44239</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44239</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44249</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44250</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44250</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44278</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44287</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44298</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44301</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44341</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44350</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44355</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44356</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44356</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44371</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>44371</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44375</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44377</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44377</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>44386</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44386</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44417</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>44418</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>44420</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>44424</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44460</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44460</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44466</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>44477</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44483</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44489</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44524</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44533</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>44550</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>44552</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>44557</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44565</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44573</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44578</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44580</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44587</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44596</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44599</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44603</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44603</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44609</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44613</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44614</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44621</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44627</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44628</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>44628</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>44630</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>44637</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44691</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44691</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44701</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44714</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44719</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44719</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44719</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44735</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44738</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44743</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44743</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44743</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44771</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44797</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44823</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44834</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44845</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44846</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44853</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44855</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44881</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44881</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44939</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44942</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44942</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>44953</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>44953</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18314,7 +18314,7 @@
         <v>44963</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44964</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44966</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44967</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44977</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44981</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44992</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44992</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44992</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44992</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44992</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44992</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>45001</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>45002</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>45006</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>45014</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>45027</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>45027</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>45033</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>45034</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>45040</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>45051</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>45062</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>45068</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>45070</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>45071</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>45078</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>45078</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>45085</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>45104</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>45105</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>45114</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45144</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>45154</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20267,7 +20267,7 @@
         <v>45159</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20324,7 +20324,7 @@
         <v>45159</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20371,7 +20371,7 @@
       </c>
       <c r="R330" s="2" t="inlineStr"/>
     </row>
-    <row r="331">
+    <row r="331" ht="15" customHeight="1">
       <c r="A331" t="inlineStr">
         <is>
           <t>A 39891-2023</t>
@@ -20381,7 +20381,7 @@
         <v>45168</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20427,6 +20427,63 @@
         <v>0</v>
       </c>
       <c r="R331" s="2" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>A 45787-2023</t>
+        </is>
+      </c>
+      <c r="B332" s="1" t="n">
+        <v>45195</v>
+      </c>
+      <c r="C332" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>TRANÅS</t>
+        </is>
+      </c>
+      <c r="G332" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="H332" t="n">
+        <v>0</v>
+      </c>
+      <c r="I332" t="n">
+        <v>0</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0</v>
+      </c>
+      <c r="L332" t="n">
+        <v>0</v>
+      </c>
+      <c r="M332" t="n">
+        <v>0</v>
+      </c>
+      <c r="N332" t="n">
+        <v>0</v>
+      </c>
+      <c r="O332" t="n">
+        <v>0</v>
+      </c>
+      <c r="P332" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q332" t="n">
+        <v>0</v>
+      </c>
+      <c r="R332" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt TRANÅS.xlsx
+++ b/Översikt TRANÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43321</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>44987</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45162</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43705</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>45027</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>43409</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>44888</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>44900</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>44965</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>45106</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>43348</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43480</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>43487</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>43587</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>43612</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>43633</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43697</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43754</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43790</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43809</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43866</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>44153</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>44239</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>44262</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44735</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>44753</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>44998</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>43325</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43336</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>43368</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43381</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>43382</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>43390</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>43398</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43409</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43426</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43426</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43427</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43430</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43438</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>43439</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43440</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43446</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43448</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43479</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43479</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43480</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43480</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43480</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43480</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43480</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43481</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43511</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43518</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43520</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43529</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>43532</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>43538</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         <v>43556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>43563</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>43564</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43565</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43565</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43580</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43580</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43580</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43580</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43580</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43580</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>43580</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43598</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>43600</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43619</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43620</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43620</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43633</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43634</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>43668</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
         <v>43676</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
         <v>43678</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>43679</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>43682</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>43682</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43684</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>43690</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>43693</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43696</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>43697</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>43700</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>43700</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>43704</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43706</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43707</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43707</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43716</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7693,7 +7693,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43747</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43753</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>43753</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>43753</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>43763</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43766</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43769</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43769</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43769</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>43769</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43769</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43769</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43795</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43796</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43796</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43801</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43801</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43801</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43801</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43801</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43804</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>43811</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>43816</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>43817</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>43832</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>43833</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>43846</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>43853</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>43853</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43853</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43853</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43865</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43865</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43865</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9926,7 +9926,7 @@
         <v>43865</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>43865</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10040,7 +10040,7 @@
         <v>43865</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>43866</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>43866</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>43866</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>43873</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>43878</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>43878</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>43887</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>43892</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>43901</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>43902</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>43902</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>43902</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>43924</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>43949</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>43984</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>43993</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>43994</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>43994</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>43994</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43994</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>43994</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>43994</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44004</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>44012</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>44049</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>44049</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44049</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>44049</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44049</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>44049</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>44049</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44049</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11991,7 +11991,7 @@
         <v>44049</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>44049</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>44049</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>44049</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>44053</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>44053</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>44056</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>44062</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>44068</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>44070</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12581,7 +12581,7 @@
         <v>44074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12638,7 +12638,7 @@
         <v>44088</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>44098</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12752,7 +12752,7 @@
         <v>44102</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12809,7 +12809,7 @@
         <v>44105</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         <v>44105</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12923,7 +12923,7 @@
         <v>44105</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>44116</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>44132</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>44144</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>44144</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>44152</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44161</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>44187</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44214</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44215</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44237</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44239</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44239</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44249</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44250</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44250</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44278</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44287</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44298</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44301</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44341</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44350</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44355</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44356</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44356</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44371</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>44371</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44375</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44377</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44377</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>44386</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44386</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44417</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>44418</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>44420</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>44424</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44460</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44460</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44466</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>44477</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44483</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44489</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44524</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44533</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>44550</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>44552</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>44557</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44565</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44573</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44578</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44580</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44587</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44596</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44599</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44603</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44603</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44609</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44613</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44614</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44621</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44627</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44628</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>44628</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>44630</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>44637</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44691</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44691</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44701</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44714</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44719</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44719</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44719</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44735</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44738</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44743</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44743</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44743</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44771</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44797</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44823</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44834</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44845</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44846</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44853</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44855</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44881</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44881</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44939</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44942</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44942</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>44953</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>44953</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18314,7 +18314,7 @@
         <v>44963</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44964</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44966</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44967</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44977</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44981</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44992</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44992</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44992</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44992</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44992</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44992</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>45001</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>45002</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>45006</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>45014</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>45027</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>45027</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>45033</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>45034</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>45040</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>45051</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>45062</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>45068</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>45070</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>45071</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>45078</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>45078</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>45085</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>45104</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>45105</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>45114</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45144</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>45154</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20267,7 +20267,7 @@
         <v>45159</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20324,7 +20324,7 @@
         <v>45159</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20381,7 +20381,7 @@
         <v>45168</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20438,7 +20438,7 @@
         <v>45195</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>

--- a/Översikt TRANÅS.xlsx
+++ b/Översikt TRANÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43321</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>44987</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45162</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43705</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>45027</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>43409</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>44888</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>44900</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>44965</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>45106</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>43348</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43480</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>43487</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>43587</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>43612</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>43633</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43697</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43754</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43790</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43809</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43866</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>44153</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>44239</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>44262</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44735</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>44753</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>44998</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>43325</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43336</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>43368</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43381</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>43382</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>43390</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>43398</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43409</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43426</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43426</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43427</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43430</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43438</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>43439</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43440</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43446</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43448</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43479</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43479</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43480</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43480</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43480</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43480</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43480</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43481</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43511</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43518</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43520</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43529</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>43532</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>43538</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         <v>43556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>43563</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>43564</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43565</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43565</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43580</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43580</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43580</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43580</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43580</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43580</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>43580</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43598</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>43600</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43619</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43620</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43620</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43633</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43634</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>43668</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
         <v>43676</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
         <v>43678</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>43679</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>43682</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>43682</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43684</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>43690</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>43693</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43696</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>43697</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>43700</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>43700</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>43704</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43706</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43707</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43707</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43716</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7693,7 +7693,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43747</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43753</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>43753</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>43753</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>43763</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43766</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43769</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43769</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43769</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>43769</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43769</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43769</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43795</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43796</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43796</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43801</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43801</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43801</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43801</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43801</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43804</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>43811</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>43816</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>43817</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>43832</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>43833</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>43846</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>43853</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>43853</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43853</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43853</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43865</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43865</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43865</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9926,7 +9926,7 @@
         <v>43865</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>43865</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10040,7 +10040,7 @@
         <v>43865</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>43866</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>43866</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>43866</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>43873</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>43878</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>43878</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>43887</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>43892</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>43901</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>43902</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>43902</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>43902</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>43924</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>43949</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>43984</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>43993</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>43994</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>43994</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>43994</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43994</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>43994</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>43994</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44004</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>44012</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>44049</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>44049</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44049</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>44049</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44049</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>44049</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>44049</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44049</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11991,7 +11991,7 @@
         <v>44049</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>44049</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>44049</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>44049</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>44053</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>44053</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>44056</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>44062</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>44068</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>44070</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12581,7 +12581,7 @@
         <v>44074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12638,7 +12638,7 @@
         <v>44088</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>44098</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12752,7 +12752,7 @@
         <v>44102</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12809,7 +12809,7 @@
         <v>44105</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         <v>44105</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12923,7 +12923,7 @@
         <v>44105</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>44116</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>44132</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>44144</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>44144</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>44152</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44161</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>44187</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44214</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44215</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44237</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44239</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44239</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44249</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44250</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44250</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44278</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44287</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44298</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44301</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44341</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44350</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44355</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44356</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44356</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44371</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>44371</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44375</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44377</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44377</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>44386</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44386</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44417</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>44418</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>44420</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>44424</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44460</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44460</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44466</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>44477</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44483</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44489</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44524</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44533</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>44550</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>44552</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>44557</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44565</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44573</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44578</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44580</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44587</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44596</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44599</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44603</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44603</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44609</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44613</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44614</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44621</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44627</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44628</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>44628</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>44630</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>44637</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44691</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44691</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44701</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44714</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44719</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44719</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44719</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44735</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44738</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44743</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44743</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44743</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44771</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44797</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44823</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44834</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44845</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44846</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44853</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44855</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44881</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44881</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44939</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44942</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44942</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>44953</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>44953</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18314,7 +18314,7 @@
         <v>44963</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44964</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44966</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44967</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44977</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44981</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44992</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44992</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44992</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44992</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44992</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44992</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>45001</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>45002</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>45006</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>45014</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>45027</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>45027</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>45033</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>45034</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>45040</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>45051</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>45062</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>45068</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>45070</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>45071</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>45078</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>45078</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>45085</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>45104</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>45105</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>45114</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45144</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>45154</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20267,7 +20267,7 @@
         <v>45159</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20324,7 +20324,7 @@
         <v>45159</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20381,7 +20381,7 @@
         <v>45168</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20438,7 +20438,7 @@
         <v>45195</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>

--- a/Översikt TRANÅS.xlsx
+++ b/Översikt TRANÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43321</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>44987</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45162</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43705</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>45027</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>43409</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>44888</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>44900</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>44965</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>45106</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>43348</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43480</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>43487</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>43587</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>43612</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>43633</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43697</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43754</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43790</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43809</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43866</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>44153</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>44239</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>44262</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44735</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>44753</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>44998</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>43325</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43336</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>43368</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43381</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>43382</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>43390</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>43398</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43409</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43426</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43426</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43427</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43430</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43438</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>43439</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43440</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43446</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43448</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43479</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43479</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43480</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43480</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43480</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43480</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43480</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43481</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43511</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43518</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43520</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43529</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>43532</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>43538</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         <v>43556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>43563</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>43564</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43565</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43565</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43580</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43580</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43580</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43580</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43580</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43580</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>43580</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43598</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>43600</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43619</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43620</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43620</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43633</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43634</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>43668</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
         <v>43676</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
         <v>43678</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>43679</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>43682</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>43682</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43684</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>43690</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>43693</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43696</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>43697</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>43700</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>43700</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>43704</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43706</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43707</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43707</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43716</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7693,7 +7693,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43747</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43753</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>43753</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>43753</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>43763</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43766</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43769</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43769</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43769</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>43769</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43769</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43769</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43795</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43796</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43796</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43801</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43801</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43801</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43801</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43801</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43804</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>43811</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>43816</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>43817</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>43832</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>43833</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>43846</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>43853</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>43853</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43853</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43853</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43865</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43865</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43865</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9926,7 +9926,7 @@
         <v>43865</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>43865</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10040,7 +10040,7 @@
         <v>43865</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>43866</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>43866</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>43866</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>43873</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>43878</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>43878</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>43887</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>43892</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>43901</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>43902</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>43902</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>43902</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>43924</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>43949</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>43984</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>43993</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>43994</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>43994</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>43994</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43994</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>43994</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>43994</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44004</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>44012</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>44049</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>44049</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44049</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>44049</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44049</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>44049</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>44049</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44049</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11991,7 +11991,7 @@
         <v>44049</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>44049</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>44049</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>44049</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>44053</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>44053</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>44056</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>44062</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>44068</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>44070</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12581,7 +12581,7 @@
         <v>44074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12638,7 +12638,7 @@
         <v>44088</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>44098</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12752,7 +12752,7 @@
         <v>44102</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12809,7 +12809,7 @@
         <v>44105</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         <v>44105</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12923,7 +12923,7 @@
         <v>44105</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>44116</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>44132</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>44144</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>44144</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>44152</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44161</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>44187</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44214</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44215</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44237</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44239</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44239</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44249</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44250</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44250</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44278</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44287</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44298</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44301</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44341</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44350</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44355</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44356</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44356</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44371</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>44371</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44375</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44377</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44377</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>44386</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44386</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44417</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>44418</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>44420</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>44424</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44460</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44460</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44466</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>44477</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44483</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44489</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44524</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44533</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>44550</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>44552</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>44557</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44565</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44573</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44578</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44580</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44587</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44596</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44599</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44603</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44603</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44609</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44613</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44614</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44621</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44627</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44628</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>44628</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>44630</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>44637</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44691</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44691</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44701</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44714</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44719</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44719</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44719</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44735</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44738</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44743</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44743</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44743</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44771</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44797</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44823</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44834</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44845</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44846</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44853</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44855</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44881</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44881</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44939</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44942</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44942</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>44953</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>44953</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18314,7 +18314,7 @@
         <v>44963</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44964</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44966</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44967</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44977</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44981</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44992</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44992</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44992</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44992</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44992</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44992</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>45001</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>45002</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>45006</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>45014</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>45027</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>45027</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>45033</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>45034</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>45040</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>45051</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>45062</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>45068</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>45070</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>45071</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>45078</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>45078</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>45085</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>45104</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>45105</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>45114</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45144</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>45154</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20267,7 +20267,7 @@
         <v>45159</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20324,7 +20324,7 @@
         <v>45159</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20381,7 +20381,7 @@
         <v>45168</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20438,7 +20438,7 @@
         <v>45195</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>

--- a/Översikt TRANÅS.xlsx
+++ b/Översikt TRANÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43321</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>44987</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45162</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43705</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>45027</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>43409</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>44888</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>44900</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>44965</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>45106</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>43348</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43480</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>43487</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>43587</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>43612</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>43633</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43697</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43754</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43790</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43809</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43866</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>44153</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>44239</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>44262</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44735</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>44753</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>44998</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>43325</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43336</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>43368</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43381</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>43382</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>43390</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>43398</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43409</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43426</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43426</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43427</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43430</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43438</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>43439</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43440</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43446</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43448</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43479</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43479</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43480</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43480</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43480</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43480</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43480</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43481</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43511</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43518</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43520</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43529</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>43532</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>43538</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         <v>43556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>43563</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>43564</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43565</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43565</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43580</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43580</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43580</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43580</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43580</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43580</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>43580</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43598</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>43600</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43619</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43620</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43620</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43633</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43634</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>43668</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
         <v>43676</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
         <v>43678</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>43679</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>43682</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>43682</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43684</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>43690</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>43693</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43696</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>43697</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>43700</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>43700</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>43704</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43706</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43707</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43707</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43716</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7693,7 +7693,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43747</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43753</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>43753</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>43753</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>43763</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43766</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43769</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43769</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43769</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>43769</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43769</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43769</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43795</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43796</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43796</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43801</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43801</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43801</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43801</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43801</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43804</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>43811</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>43816</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>43817</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>43832</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>43833</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>43846</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>43853</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>43853</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43853</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43853</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43865</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43865</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43865</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9926,7 +9926,7 @@
         <v>43865</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>43865</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10040,7 +10040,7 @@
         <v>43865</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>43866</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>43866</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>43866</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>43873</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>43878</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>43878</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>43887</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>43892</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>43901</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>43902</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>43902</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>43902</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>43924</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>43949</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>43984</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>43993</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>43994</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>43994</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>43994</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43994</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>43994</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>43994</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44004</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>44012</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>44049</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>44049</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44049</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>44049</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44049</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>44049</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>44049</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44049</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11991,7 +11991,7 @@
         <v>44049</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>44049</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>44049</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>44049</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>44053</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>44053</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>44056</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>44062</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>44068</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>44070</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12581,7 +12581,7 @@
         <v>44074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12638,7 +12638,7 @@
         <v>44088</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>44098</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12752,7 +12752,7 @@
         <v>44102</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12809,7 +12809,7 @@
         <v>44105</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         <v>44105</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12923,7 +12923,7 @@
         <v>44105</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>44116</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>44132</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>44144</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>44144</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>44152</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44161</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>44187</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44214</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44215</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44237</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44239</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44239</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44249</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44250</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44250</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44278</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44287</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44298</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44301</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44341</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44350</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44355</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44356</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44356</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44371</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>44371</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44375</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44377</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44377</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>44386</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44386</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44417</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>44418</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>44420</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>44424</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44460</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44460</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44466</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>44477</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44483</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44489</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44524</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44533</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>44550</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>44552</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>44557</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44565</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44573</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44578</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44580</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44587</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44596</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44599</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44603</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44603</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44609</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44613</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44614</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44621</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44627</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44628</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>44628</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>44630</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>44637</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44691</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44691</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44701</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44714</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44719</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44719</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44719</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44735</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44738</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44743</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44743</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44743</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44771</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44797</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44823</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44834</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44845</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44846</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44853</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44855</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44881</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44881</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44939</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44942</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44942</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>44953</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>44953</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18314,7 +18314,7 @@
         <v>44963</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44964</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44966</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44967</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44977</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44981</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44992</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44992</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44992</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44992</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44992</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44992</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>45001</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>45002</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>45006</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>45014</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>45027</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>45027</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>45033</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>45034</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>45040</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>45051</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>45062</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>45068</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>45070</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>45071</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>45078</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>45078</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>45085</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>45104</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>45105</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>45114</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45144</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>45154</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20267,7 +20267,7 @@
         <v>45159</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20324,7 +20324,7 @@
         <v>45159</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20381,7 +20381,7 @@
         <v>45168</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20438,7 +20438,7 @@
         <v>45195</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>

--- a/Översikt TRANÅS.xlsx
+++ b/Översikt TRANÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43321</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>44987</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45162</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>43705</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>45027</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>43409</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>44888</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>44900</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>44965</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>45106</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>43348</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43480</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>43487</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>43587</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>43612</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>43633</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43697</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43754</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43790</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43809</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43809</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43866</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>44153</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>44239</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>44262</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44735</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>44753</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>44998</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>43325</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>43336</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>43368</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43381</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>43382</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>43390</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>43398</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43409</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43426</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43426</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43427</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43430</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43438</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>43439</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43440</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43446</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>43448</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43479</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43479</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43480</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43480</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43480</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43480</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43480</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43481</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43511</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43518</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43520</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43529</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>43532</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>43538</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         <v>43556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>43563</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>43564</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43565</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43565</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43580</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43580</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43580</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43580</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43580</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43580</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>43580</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43598</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>43600</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43619</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>43620</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>43620</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43633</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43634</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>43668</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
         <v>43676</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
         <v>43678</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>43679</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>43682</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>43682</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43684</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>43690</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>43693</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43696</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>43697</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>43700</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>43700</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>43704</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43706</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43707</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43707</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>43716</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7693,7 +7693,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43747</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43753</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>43753</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>43753</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>43763</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43766</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43769</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43769</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43769</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>43769</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43769</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43769</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43795</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43796</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43796</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43801</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43801</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43801</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43801</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43801</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43804</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>43811</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>43816</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>43817</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>43832</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>43833</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>43846</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>43853</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>43853</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43853</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43853</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43865</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43865</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43865</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9926,7 +9926,7 @@
         <v>43865</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>43865</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10040,7 +10040,7 @@
         <v>43865</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>43866</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>43866</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>43866</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>43873</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>43878</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>43878</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>43887</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>43892</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>43901</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>43902</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>43902</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>43902</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>43924</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>43949</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>43984</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>43993</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>43994</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>43994</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>43994</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43994</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>43994</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>43994</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44004</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>44012</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>44049</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>44049</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44049</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>44049</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44049</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>44049</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>44049</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44049</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11991,7 +11991,7 @@
         <v>44049</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>44049</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>44049</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>44049</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>44053</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>44053</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>44056</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>44062</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>44068</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>44070</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12581,7 +12581,7 @@
         <v>44074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12638,7 +12638,7 @@
         <v>44088</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>44098</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12752,7 +12752,7 @@
         <v>44102</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12809,7 +12809,7 @@
         <v>44105</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         <v>44105</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12923,7 +12923,7 @@
         <v>44105</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>44116</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>44132</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>44144</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>44144</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>44152</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44161</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>44187</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44214</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44215</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44237</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44239</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44239</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44249</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44250</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44250</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44278</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44287</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44298</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44301</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44341</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44350</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44355</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44356</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44356</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44371</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>44371</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44375</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44377</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44377</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>44386</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44386</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44417</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>44418</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>44420</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>44424</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44460</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44460</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44466</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>44477</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44483</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44489</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44524</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44533</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>44550</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>44552</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>44557</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44565</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44573</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44578</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44580</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44587</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44596</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44599</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44603</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44603</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44609</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44613</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44614</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44621</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44627</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44628</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>44628</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>44630</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>44637</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44691</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44691</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44701</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44714</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44719</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44719</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44719</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44735</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44738</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44743</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44743</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44743</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44771</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44797</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44823</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44834</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44845</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44846</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44853</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44855</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44881</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44881</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44939</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44942</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44942</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>44953</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>44953</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18314,7 +18314,7 @@
         <v>44963</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44964</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44966</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44967</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44977</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44981</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44992</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44992</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44992</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44992</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44992</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44992</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>45001</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>45002</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>45006</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>45014</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>45027</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>45027</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>45033</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>45034</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>45040</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>45051</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>45062</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>45068</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>45070</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>45071</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>45078</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>45078</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>45085</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>45104</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>45105</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>45114</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45144</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>45154</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20267,7 +20267,7 @@
         <v>45159</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20324,7 +20324,7 @@
         <v>45159</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20381,7 +20381,7 @@
         <v>45168</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20438,7 +20438,7 @@
         <v>45195</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
